--- a/Parameters/BProg.xlsx
+++ b/Parameters/BProg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726364A1-B12A-403B-9929-A55FA6E2FEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D55B15E-797C-46BB-A118-DECFAE13B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,19 +38,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID_DES.LM_project</t>
   </si>
   <si>
-    <t>Groupe_name</t>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Full_Project_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +76,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,17 +110,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{85AD8918-D11A-4900-A3FC-A571A96C01CE}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{6239D69A-7040-4886-A66F-49340627E7A7}"/>
+    <cellStyle name="Обычный 3 2" xfId="4" xr:uid="{47A69AB4-4BC8-448D-9709-EEC70890577E}"/>
+    <cellStyle name="Процентный 2" xfId="3" xr:uid="{13B491F0-05B3-4F20-8301-A126FF6B3FAC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -430,20 +447,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
+  <autoFilter ref="A1:C1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Parameters/BProg.xlsx
+++ b/Parameters/BProg.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D55B15E-797C-46BB-A118-DECFAE13B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA12C40-4C96-4942-A4D9-BBA55581537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
+    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID_DES.LM_project</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Full_Project_name</t>
+  </si>
+  <si>
+    <t>IS_Service_type</t>
+  </si>
+  <si>
+    <t>IS_Product_type</t>
   </si>
 </sst>
 </file>
@@ -117,9 +123,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,21 +445,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,11 +469,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
+  <autoFilter ref="A1:E1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Parameters/BProg.xlsx
+++ b/Parameters/BProg.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dim-Dim\MyData\Common Work Place\Projects\DES.LM.Reports\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA12C40-4C96-4942-A4D9-BBA55581537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB24EEA5-9AB0-4F2B-91BD-5D56ED06EE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$300</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,24 +116,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="32">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{85AD8918-D11A-4900-A3FC-A571A96C01CE}"/>
     <cellStyle name="Обычный 3" xfId="2" xr:uid="{6239D69A-7040-4886-A66F-49340627E7A7}"/>
     <cellStyle name="Обычный 3 2" xfId="4" xr:uid="{47A69AB4-4BC8-448D-9709-EEC70890577E}"/>
+    <cellStyle name="Обычный 3 2 2" xfId="6" xr:uid="{E0C94BC1-FC7D-46D5-864D-BFD28E7D5EB7}"/>
+    <cellStyle name="Обычный 3 2 2 2" xfId="8" xr:uid="{7C888D18-3F55-4209-BEAE-534CC4888F93}"/>
+    <cellStyle name="Обычный 3 2 2 2 2" xfId="14" xr:uid="{036ED83A-237E-4486-B4D0-BC846427EB54}"/>
+    <cellStyle name="Обычный 3 2 2 2 2 2" xfId="28" xr:uid="{4C18D92D-844A-46B3-A854-95CB5E7ED62F}"/>
+    <cellStyle name="Обычный 3 2 2 2 3" xfId="21" xr:uid="{27826CD3-2E8C-4336-A901-50DA7289A49B}"/>
+    <cellStyle name="Обычный 3 2 2 3" xfId="12" xr:uid="{F1347F9C-0E61-457D-9A43-DBBF3B3326AF}"/>
+    <cellStyle name="Обычный 3 2 2 3 2" xfId="26" xr:uid="{072DF091-91DD-46F4-965F-9E09D22A09EE}"/>
+    <cellStyle name="Обычный 3 2 2 4" xfId="19" xr:uid="{38F929A8-F2CC-4D95-8D45-D17B35D6F075}"/>
+    <cellStyle name="Обычный 3 2 3" xfId="7" xr:uid="{C8EE52CD-6155-47C0-9DE5-9F8A4301A581}"/>
+    <cellStyle name="Обычный 3 2 3 2" xfId="13" xr:uid="{3A8F4FFA-8B9D-4D4E-9A79-D6E02FB9C0B4}"/>
+    <cellStyle name="Обычный 3 2 3 2 2" xfId="27" xr:uid="{5E97187A-1B2B-447F-99E0-4FF68069CCF1}"/>
+    <cellStyle name="Обычный 3 2 3 3" xfId="20" xr:uid="{8DB1A0CC-0AEE-4E80-8730-90A8B46104DE}"/>
+    <cellStyle name="Обычный 3 2 4" xfId="9" xr:uid="{FC46D1AD-054E-40C1-ACC1-7BE268C6BECE}"/>
+    <cellStyle name="Обычный 3 2 4 2" xfId="15" xr:uid="{F6E69E82-9C7A-41E3-9587-08C2FD1F16B8}"/>
+    <cellStyle name="Обычный 3 2 4 2 2" xfId="29" xr:uid="{F4993AC5-DF69-4BFC-BF3A-146EA91012FD}"/>
+    <cellStyle name="Обычный 3 2 4 3" xfId="22" xr:uid="{BC275C4A-F1C6-47CA-9FB0-AC7B4058F78F}"/>
+    <cellStyle name="Обычный 3 2 5" xfId="11" xr:uid="{B6DAE08F-5B2E-4291-B642-A62AA26671D3}"/>
+    <cellStyle name="Обычный 3 2 5 2" xfId="25" xr:uid="{6B547997-9D40-4B1F-A226-8FD95ED5DA45}"/>
+    <cellStyle name="Обычный 3 2 6" xfId="18" xr:uid="{2F75F26A-FB6D-404B-BE90-D86BCABF0D92}"/>
+    <cellStyle name="Обычный 3 3" xfId="17" xr:uid="{5DFCE8E6-081E-40D6-B4EE-D6CE061F1565}"/>
+    <cellStyle name="Обычный 3 3 2" xfId="31" xr:uid="{0DF76CB7-F513-4893-AA8A-65D903AD8A4F}"/>
+    <cellStyle name="Обычный 3 4" xfId="24" xr:uid="{EDAAD33F-C856-4DE8-B364-A7C7882F1B6E}"/>
+    <cellStyle name="Обычный 4" xfId="10" xr:uid="{86D69B0B-57C7-44C8-A0E2-0B33E81E12D7}"/>
+    <cellStyle name="Обычный 4 2" xfId="16" xr:uid="{47328B43-FE6C-47FF-960D-1BEFF5F3CFE3}"/>
+    <cellStyle name="Обычный 4 2 2" xfId="30" xr:uid="{3CFE8287-14FE-41F1-AB61-ABEAD1C28CF5}"/>
+    <cellStyle name="Обычный 4 3" xfId="23" xr:uid="{17EA2163-94CB-4B9A-B814-6BD2BA915A1A}"/>
     <cellStyle name="Процентный 2" xfId="3" xr:uid="{13B491F0-05B3-4F20-8301-A126FF6B3FAC}"/>
+    <cellStyle name="Процентный 3" xfId="5" xr:uid="{0A31D901-AFAB-493E-9CC6-9E75D8AA0834}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,9 +508,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
+  <autoFilter ref="A1:E300" xr:uid="{A3F2C30A-8E50-404E-92D3-C8D178933546}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
